--- a/dragon-verse/Excels/RelateEntity_叙述实体表.xlsx
+++ b/dragon-verse/Excels/RelateEntity_叙述实体表.xlsx
@@ -52,7 +52,7 @@
     <t>名称</t>
   </si>
   <si>
-    <t xml:space="preserve">NEVEN_CHANGE 不要更改此列</t>
+    <t xml:space="preserve">VIEW_ONLY 不要更改或使用此列</t>
   </si>
   <si>
     <t>立绘</t>
@@ -205,7 +205,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
+        <row r="4">
           <cell r="D1" t="str">
             <v>string</v>
           </cell>
@@ -213,7 +213,7 @@
             <v>string</v>
           </cell>
         </row>
-        <row r="2">
+        <row r="3">
           <cell r="D1" t="str">
             <v>string</v>
           </cell>
